--- a/Doc/软件开发时间与费用预估-19-11-02.xlsx
+++ b/Doc/软件开发时间与费用预估-19-11-02.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19935" windowHeight="7860"/>
+    <workbookView windowWidth="19815" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -114,10 +114,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -136,14 +136,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -165,62 +180,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,10 +208,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -266,14 +249,31 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -288,187 +288,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -613,6 +613,26 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -626,11 +646,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -664,56 +714,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -722,10 +722,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -734,137 +734,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -892,6 +892,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -902,6 +905,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1269,8 +1275,8 @@
   <sheetPr/>
   <dimension ref="B1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1315,13 +1321,13 @@
       <c r="C4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="10">
         <v>5</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="10">
         <v>1000</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="11" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1329,16 +1335,16 @@
       <c r="B5" s="8">
         <v>2</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="9">
-        <v>15</v>
-      </c>
-      <c r="E5" s="9">
+      <c r="D5" s="10">
+        <v>2</v>
+      </c>
+      <c r="E5" s="10">
         <v>3000</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="13" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1346,16 +1352,16 @@
       <c r="B6" s="8">
         <v>3</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="10">
         <v>2</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="10">
         <v>1000</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="15" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1363,16 +1369,16 @@
       <c r="B7" s="8">
         <v>4</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="10">
         <v>2</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="10">
         <v>500</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="13" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1380,16 +1386,16 @@
       <c r="B8" s="8">
         <v>5</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="10">
         <v>5</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="10">
         <v>2500</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="13" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1397,16 +1403,16 @@
       <c r="B9" s="8">
         <v>6</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="10">
         <v>5</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="10">
         <v>2500</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="13" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1414,16 +1420,16 @@
       <c r="B10" s="8">
         <v>7</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="10">
         <v>5</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="10">
         <v>2500</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="13" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1431,16 +1437,16 @@
       <c r="B11" s="8">
         <v>8</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="10">
         <v>5</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="10">
         <v>2500</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="13" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1448,31 +1454,31 @@
       <c r="B12" s="8">
         <v>9</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="9">
-        <v>10</v>
-      </c>
-      <c r="E12" s="9">
+      <c r="D12" s="10">
+        <v>2</v>
+      </c>
+      <c r="E12" s="10">
         <v>2500</v>
       </c>
-      <c r="F12" s="12"/>
+      <c r="F12" s="13"/>
     </row>
     <row r="13" ht="31" customHeight="1" spans="2:6">
       <c r="B13" s="8">
         <v>10</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="10">
         <v>1</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="10">
         <v>500</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="13" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1480,16 +1486,16 @@
       <c r="B14" s="8">
         <v>11</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="9">
-        <v>10</v>
-      </c>
-      <c r="E14" s="9">
+      <c r="D14" s="10">
+        <v>5</v>
+      </c>
+      <c r="E14" s="10">
         <v>3000</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="13" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1497,35 +1503,35 @@
       <c r="B15" s="8">
         <v>12</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="9">
-        <v>15</v>
-      </c>
-      <c r="E15" s="9">
+      <c r="D15" s="10">
+        <v>10</v>
+      </c>
+      <c r="E15" s="10">
         <v>5000</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="13" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="16" ht="53" customHeight="1" spans="2:6">
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D16" s="18">
         <f>SUM(D5:D15)</f>
-        <v>75</v>
-      </c>
-      <c r="E16" s="16">
+        <v>44</v>
+      </c>
+      <c r="E16" s="18">
         <f>SUM(E4:E15)</f>
         <v>26500</v>
       </c>
-      <c r="F16" s="17"/>
+      <c r="F16" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Doc/软件开发时间与费用预估-19-11-02.xlsx
+++ b/Doc/软件开发时间与费用预估-19-11-02.xlsx
@@ -114,10 +114,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -135,30 +135,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -180,6 +175,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -187,93 +220,60 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -288,18 +288,144 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -312,13 +438,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -330,145 +456,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -613,17 +613,6 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -633,15 +622,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -661,6 +641,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -676,15 +667,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -714,6 +696,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -722,10 +722,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -734,133 +734,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1276,7 +1276,7 @@
   <dimension ref="B1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
